--- a/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
+++ b/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19332" windowHeight="4944" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
+++ b/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19332" windowHeight="4944" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19332" windowHeight="7716" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +57,12 @@
   </si>
   <si>
     <t>ad123</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>456</t>
   </si>
 </sst>
 </file>
@@ -453,7 +460,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +486,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -488,7 +497,9 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">

--- a/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
+++ b/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19332" windowHeight="7716" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12852" windowHeight="7716" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="customer&amp;project_creds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -63,6 +64,18 @@
   </si>
   <si>
     <t>456</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Project_Name</t>
+  </si>
+  <si>
+    <t>Yes Bank</t>
+  </si>
+  <si>
+    <t>Automate Web Application</t>
   </si>
 </sst>
 </file>
@@ -127,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +154,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -536,4 +551,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>